--- a/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186EBEB-9481-460D-93A4-28A4B5AB86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2984A3A5-7546-4F15-A640-0AF4D326D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios " sheetId="1" r:id="rId1"/>
@@ -18,12 +18,9 @@
     <sheet name="reserva_turno" sheetId="5" r:id="rId3"/>
     <sheet name="tipo_servicio " sheetId="9" r:id="rId4"/>
     <sheet name="recordatorio" sheetId="16" r:id="rId5"/>
-    <sheet name="producto" sheetId="7" r:id="rId6"/>
+    <sheet name="inventario" sheetId="7" r:id="rId6"/>
     <sheet name="categoria_producto" sheetId="20" r:id="rId7"/>
-    <sheet name="compra" sheetId="6" r:id="rId8"/>
-    <sheet name="tipo_pago" sheetId="15" r:id="rId9"/>
-    <sheet name="carrito_compras" sheetId="10" r:id="rId10"/>
-    <sheet name="factura " sheetId="11" r:id="rId11"/>
+    <sheet name="addbarberos" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="87">
   <si>
     <t>column name</t>
   </si>
@@ -94,15 +91,6 @@
     <t>ID único de la reserva de turno</t>
   </si>
   <si>
-    <t>Compra</t>
-  </si>
-  <si>
-    <t>ID_compra</t>
-  </si>
-  <si>
-    <t>Precio_Total</t>
-  </si>
-  <si>
     <t>ID_producto</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>Producto</t>
   </si>
   <si>
-    <t xml:space="preserve">Precio </t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripcion del servicio </t>
   </si>
   <si>
@@ -133,27 +118,6 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>ID unico del carrito de compras</t>
-  </si>
-  <si>
-    <t>ID unico del producto del carrito de compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrito de compras </t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>ID_factura</t>
-  </si>
-  <si>
-    <t>ID único de la factura</t>
-  </si>
-  <si>
-    <t>ID unico de la compra en la factura</t>
-  </si>
-  <si>
     <t>Aceptar_Turno</t>
   </si>
   <si>
@@ -178,9 +142,6 @@
     <t>ID unico del tipo de servico para la reserva del turno</t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del horario  </t>
-  </si>
-  <si>
     <t>Descripcion de la compra</t>
   </si>
   <si>
@@ -193,9 +154,6 @@
     <t xml:space="preserve">ID unico de la reserva </t>
   </si>
   <si>
-    <t>Fecha de cuando se hizo la factura</t>
-  </si>
-  <si>
     <t>ID único del producto</t>
   </si>
   <si>
@@ -214,15 +172,9 @@
     <t>Categoria del producto</t>
   </si>
   <si>
-    <t>Fecha y hora del horario</t>
-  </si>
-  <si>
     <t>Categoria Producto</t>
   </si>
   <si>
-    <t>ID unico de la categoria del producto</t>
-  </si>
-  <si>
     <t>ID Unico para Categoria_Producto</t>
   </si>
   <si>
@@ -250,15 +202,6 @@
     <t>ID unico del usuario para la reserva de turno</t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del usuario para la compra </t>
-  </si>
-  <si>
-    <t>ID unico del usuario en el carrito de compras</t>
-  </si>
-  <si>
-    <t>ID unico de el usuario en la factura</t>
-  </si>
-  <si>
     <t>ID único del usuario</t>
   </si>
   <si>
@@ -283,9 +226,6 @@
     <t>ID_categoria_producto</t>
   </si>
   <si>
-    <t>ID_carrito_compras</t>
-  </si>
-  <si>
     <t>Mensaje</t>
   </si>
   <si>
@@ -304,24 +244,12 @@
     <t xml:space="preserve">ID_tipo_servicio </t>
   </si>
   <si>
-    <t>Tipo de pago</t>
-  </si>
-  <si>
-    <t>ID_tipo_pago</t>
-  </si>
-  <si>
-    <t>TipoPago</t>
-  </si>
-  <si>
     <t>Descripcion_S</t>
   </si>
   <si>
     <t>Descripcion_P</t>
   </si>
   <si>
-    <t>Descripcion_C</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -334,19 +262,37 @@
     <t>TIME</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE </t>
-  </si>
-  <si>
     <t>ID_tipo_servicio</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hora </t>
   </si>
   <si>
     <t xml:space="preserve">ID_recordatorio </t>
+  </si>
+  <si>
+    <t>user_reset_code</t>
+  </si>
+  <si>
+    <t>user_reset_code_expiration</t>
+  </si>
+  <si>
+    <t>Codigo de recuperacion de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo expirado </t>
+  </si>
+  <si>
+    <t>PrecioUnitario</t>
+  </si>
+  <si>
+    <t>AddBarberos</t>
+  </si>
+  <si>
+    <t>ID_barbero</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -406,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,11 +427,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -508,9 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -520,6 +504,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,29 +825,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -880,10 +871,10 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -891,7 +882,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,7 +898,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,7 +914,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +930,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,7 +946,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,23 +962,51 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>80</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -999,233 +1018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE346BF-AD48-4DE0-BEB7-DC25D908EC76}">
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,14 +1035,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1268,10 +1066,10 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1279,12 +1077,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1295,7 +1093,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1109,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,14 +1121,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1357,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1370,10 +1168,10 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1381,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1397,15 +1195,15 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1413,12 +1211,12 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1429,12 +1227,12 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1445,15 +1243,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1461,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1275,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,14 +1287,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1520,10 +1318,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1531,12 +1329,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1547,12 +1345,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1563,7 +1361,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1579,15 +1377,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1595,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1410,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,14 +1422,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1655,10 +1453,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1666,12 +1464,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1682,7 +1480,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1690,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1698,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1513,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,14 +1525,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1758,10 +1556,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1769,12 +1567,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1785,12 +1583,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1801,12 +1599,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1817,15 +1615,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1833,15 +1631,15 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -1849,7 +1647,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1663,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,14 +1675,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1908,10 +1706,10 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1919,12 +1717,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1935,7 +1733,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1950,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1994,10 +1792,10 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -2005,12 +1803,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -2021,15 +1819,15 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -2037,57 +1835,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
@@ -2096,94 +1849,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2404,24 +2087,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2438,29 +2129,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2984A3A5-7546-4F15-A640-0AF4D326D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98820A-211A-4B7B-85A0-C3226034A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios " sheetId="1" r:id="rId1"/>
     <sheet name="rol" sheetId="3" r:id="rId2"/>
     <sheet name="reserva_turno" sheetId="5" r:id="rId3"/>
     <sheet name="tipo_servicio " sheetId="9" r:id="rId4"/>
-    <sheet name="recordatorio" sheetId="16" r:id="rId5"/>
-    <sheet name="inventario" sheetId="7" r:id="rId6"/>
-    <sheet name="categoria_producto" sheetId="20" r:id="rId7"/>
-    <sheet name="addbarberos" sheetId="6" r:id="rId8"/>
+    <sheet name="inventario" sheetId="7" r:id="rId5"/>
+    <sheet name="categoria_producto" sheetId="20" r:id="rId6"/>
+    <sheet name="addbarberos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>column name</t>
   </si>
@@ -145,15 +144,6 @@
     <t>Descripcion de la compra</t>
   </si>
   <si>
-    <t>Recordatorio</t>
-  </si>
-  <si>
-    <t>ID unico del recordatorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID unico de la reserva </t>
-  </si>
-  <si>
     <t>ID único del producto</t>
   </si>
   <si>
@@ -196,9 +186,6 @@
     <t>ID único del rol</t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del usuario </t>
-  </si>
-  <si>
     <t>ID unico del usuario para la reserva de turno</t>
   </si>
   <si>
@@ -226,12 +213,6 @@
     <t>ID_categoria_producto</t>
   </si>
   <si>
-    <t>Mensaje</t>
-  </si>
-  <si>
-    <t>Mensaje del recordatorio</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
@@ -266,9 +247,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_recordatorio </t>
   </si>
   <si>
     <t>user_reset_code</t>
@@ -495,6 +473,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -504,13 +489,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -840,14 +818,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -871,7 +849,7 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -882,7 +860,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -898,7 +876,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -914,7 +892,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +908,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -946,7 +924,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,51 +940,51 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>62</v>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>81</v>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>82</v>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1035,14 +1013,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1066,7 +1044,7 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1077,12 +1055,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1093,7 +1071,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1121,14 +1099,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1168,7 +1146,7 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1187,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1195,15 +1173,15 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1211,7 +1189,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1226,7 @@
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1259,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1253,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,14 +1265,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1318,7 +1296,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1329,7 +1307,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1350,7 +1328,7 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1380,22 +1358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
@@ -1406,113 +1369,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1525,14 +1385,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1567,7 +1427,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1583,12 +1443,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1599,7 +1459,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1480,7 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1631,12 +1491,12 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1658,7 +1518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
   <dimension ref="B1:G5"/>
   <sheetViews>
@@ -1675,14 +1535,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1706,7 +1566,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1717,12 +1577,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1733,7 +1593,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1744,11 +1604,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1761,14 +1621,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1792,7 +1652,7 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1824,10 +1684,10 @@
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1850,23 +1710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2087,32 +1930,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2129,4 +1964,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>